--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,22 +40,22 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>poor</t>
+    <t>warning</t>
   </si>
   <si>
     <t>crisis</t>
@@ -64,69 +64,78 @@
     <t>forced</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>war</t>
   </si>
   <si>
     <t>recession</t>
   </si>
   <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>selfish</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>isolation</t>
   </si>
   <si>
     <t>shortage</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>drop</t>
+    <t>stop</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -136,181 +145,190 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>strong</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>important</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>help</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>save</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>increased</t>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>health</t>
   </si>
   <si>
     <t>want</t>
   </si>
   <si>
-    <t>essential</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
+    <t>san</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>san</t>
+    <t>co</t>
   </si>
   <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>prices</t>
   </si>
   <si>
     <t>corona</t>
@@ -671,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -679,10 +697,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -743,10 +761,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -761,16 +779,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -782,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -790,13 +808,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -808,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -832,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -840,13 +858,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9705882352941176</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -861,16 +879,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>0.8846153846153846</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -882,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -890,13 +908,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8076923076923077</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -908,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>0.8787878787878788</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -932,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -940,13 +958,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8055555555555556</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -958,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>0.8515625</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L7">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M7">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -982,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -990,13 +1008,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1008,31 +1026,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="L8">
+        <v>31</v>
+      </c>
+      <c r="M8">
+        <v>31</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>5</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8">
-        <v>0.8392857142857143</v>
-      </c>
-      <c r="L8">
-        <v>94</v>
-      </c>
-      <c r="M8">
-        <v>94</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1040,13 +1058,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.702054794520548</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="C9">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D9">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1058,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>0.8292682926829268</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="L9">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1082,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1111,16 +1129,16 @@
         <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.828125</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1132,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1140,13 +1158,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.68</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1161,16 +1179,16 @@
         <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1182,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1190,13 +1208,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6129032258064516</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1208,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.795774647887324</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L12">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1232,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1240,37 +1258,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5909090909090909</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>13</v>
       </c>
-      <c r="D13">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>9</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>0.7916666666666666</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L13">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="M13">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1282,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1290,13 +1308,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5789473684210527</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1308,19 +1326,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L14">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1332,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1340,13 +1358,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5384615384615384</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1358,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0.7659574468085106</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L15">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1382,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1390,13 +1408,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1408,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K16">
-        <v>0.7641509433962265</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L16">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="M16">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1432,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1440,38 +1458,38 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4615384615384616</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17">
+        <v>0.75</v>
+      </c>
+      <c r="L17">
         <v>18</v>
       </c>
-      <c r="D17">
+      <c r="M17">
         <v>18</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>21</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17">
-        <v>0.746031746031746</v>
-      </c>
-      <c r="L17">
-        <v>47</v>
-      </c>
-      <c r="M17">
-        <v>47</v>
-      </c>
       <c r="N17">
         <v>1</v>
       </c>
@@ -1482,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1490,7 +1508,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4324324324324325</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -1508,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>0.7254901960784313</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1532,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1540,37 +1558,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3892617449664429</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>21</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D19">
-        <v>58</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>91</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="K19">
-        <v>0.7125</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1582,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1590,13 +1608,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3783783783783784</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1608,19 +1626,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K20">
-        <v>0.6702127659574468</v>
+        <v>0.7125</v>
       </c>
       <c r="L20">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="M20">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1632,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1640,13 +1658,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3604651162790697</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C21">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1658,31 +1676,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>330</v>
+        <v>22</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L21">
+        <v>74</v>
+      </c>
+      <c r="M21">
+        <v>74</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>32</v>
-      </c>
-      <c r="M21">
-        <v>32</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1690,13 +1708,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.36</v>
+        <v>0.374031007751938</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1708,19 +1726,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>48</v>
+        <v>323</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K22">
-        <v>0.6428571428571429</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1732,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1740,13 +1758,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3529411764705883</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1758,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K23">
-        <v>0.6422976501305483</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L23">
-        <v>246</v>
+        <v>63</v>
       </c>
       <c r="M23">
-        <v>246</v>
+        <v>63</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1782,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>137</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1790,13 +1808,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3389830508474576</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1808,19 +1826,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K24">
-        <v>0.64</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1832,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1840,13 +1858,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3333333333333333</v>
+        <v>0.3355704697986577</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D25">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1858,19 +1876,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K25">
-        <v>0.6388888888888888</v>
+        <v>0.625</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1882,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1890,13 +1908,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3246753246753247</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1908,19 +1926,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K26">
-        <v>0.6363636363636364</v>
+        <v>0.5953002610966057</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1932,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1940,13 +1958,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3068783068783069</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="C27">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1958,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K27">
-        <v>0.5941176470588235</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L27">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1982,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>138</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1990,13 +2008,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2008,19 +2026,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K28">
-        <v>0.5925925925925926</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2032,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2040,13 +2058,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2542372881355932</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2058,19 +2076,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K29">
-        <v>0.5777777777777777</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2082,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2090,13 +2108,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2375</v>
+        <v>0.2804232804232804</v>
       </c>
       <c r="C30">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2108,19 +2126,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K30">
-        <v>0.5588235294117647</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2132,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2140,13 +2158,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2142857142857143</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C31">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2158,19 +2176,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K31">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="L31">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2182,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2190,115 +2208,187 @@
         <v>37</v>
       </c>
       <c r="B32">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="C32">
+        <v>21</v>
+      </c>
+      <c r="D32">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>69</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K32">
+        <v>0.5389830508474577</v>
+      </c>
+      <c r="L32">
+        <v>159</v>
+      </c>
+      <c r="M32">
+        <v>159</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="C33">
+        <v>54</v>
+      </c>
+      <c r="D33">
+        <v>54</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>198</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K33">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="L33">
+        <v>14</v>
+      </c>
+      <c r="M33">
+        <v>14</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.2125</v>
+      </c>
+      <c r="C34">
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>17</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>63</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K34">
+        <v>0.5</v>
+      </c>
+      <c r="L34">
+        <v>20</v>
+      </c>
+      <c r="M34">
+        <v>20</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
         <v>0.1152815013404826</v>
       </c>
-      <c r="C32">
+      <c r="C35">
         <v>43</v>
       </c>
-      <c r="D32">
+      <c r="D35">
         <v>43</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>330</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K32">
-        <v>0.5423728813559322</v>
-      </c>
-      <c r="L32">
-        <v>160</v>
-      </c>
-      <c r="M32">
-        <v>160</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33">
-        <v>0.5393258426966292</v>
-      </c>
-      <c r="L33">
-        <v>48</v>
-      </c>
-      <c r="M33">
-        <v>48</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K34">
-        <v>0.4644351464435146</v>
-      </c>
-      <c r="L34">
-        <v>111</v>
-      </c>
-      <c r="M34">
-        <v>111</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K35">
-        <v>0.4615384615384616</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L35">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M35">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2310,15 +2400,15 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="J36" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K36">
-        <v>0.4383561643835616</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L36">
         <v>32</v>
@@ -2336,21 +2426,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="J37" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K37">
-        <v>0.4375</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="L37">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2362,307 +2452,307 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K38">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="L38">
+        <v>20</v>
+      </c>
+      <c r="M38">
+        <v>20</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K39">
+        <v>0.475</v>
+      </c>
+      <c r="L39">
+        <v>19</v>
+      </c>
+      <c r="M39">
+        <v>19</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K40">
+        <v>0.4657534246575342</v>
+      </c>
+      <c r="L40">
+        <v>34</v>
+      </c>
+      <c r="M40">
+        <v>34</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K41">
+        <v>0.453125</v>
+      </c>
+      <c r="L41">
+        <v>29</v>
+      </c>
+      <c r="M41">
+        <v>29</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K42">
+        <v>0.4518828451882845</v>
+      </c>
+      <c r="L42">
+        <v>108</v>
+      </c>
+      <c r="M42">
+        <v>108</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K43">
         <v>0.4242424242424243</v>
       </c>
-      <c r="L38">
+      <c r="L43">
         <v>14</v>
       </c>
-      <c r="M38">
+      <c r="M43">
         <v>14</v>
       </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K39">
-        <v>0.4186046511627907</v>
-      </c>
-      <c r="L39">
+    <row r="44" spans="1:17">
+      <c r="J44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K44">
+        <v>0.4193548387096774</v>
+      </c>
+      <c r="L44">
+        <v>13</v>
+      </c>
+      <c r="M44">
+        <v>13</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>18</v>
       </c>
-      <c r="M39">
-        <v>18</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K45">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="L45">
+        <v>32</v>
+      </c>
+      <c r="M45">
+        <v>32</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K46">
+        <v>0.4</v>
+      </c>
+      <c r="L46">
+        <v>14</v>
+      </c>
+      <c r="M46">
+        <v>14</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K47">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="L47">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K40">
-        <v>0.4153846153846154</v>
-      </c>
-      <c r="L40">
-        <v>27</v>
-      </c>
-      <c r="M40">
-        <v>27</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K41">
-        <v>0.4</v>
-      </c>
-      <c r="L41">
-        <v>16</v>
-      </c>
-      <c r="M41">
-        <v>16</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K42">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="L42">
+      <c r="M47">
+        <v>25</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K48">
+        <v>0.2459016393442623</v>
+      </c>
+      <c r="L48">
         <v>15</v>
       </c>
-      <c r="M42">
+      <c r="M48">
         <v>15</v>
       </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K43">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="L43">
-        <v>25</v>
-      </c>
-      <c r="M43">
-        <v>25</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K44">
-        <v>0.2978723404255319</v>
-      </c>
-      <c r="L44">
-        <v>14</v>
-      </c>
-      <c r="M44">
-        <v>14</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
-      <c r="J45" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K45">
-        <v>0.288135593220339</v>
-      </c>
-      <c r="L45">
-        <v>17</v>
-      </c>
-      <c r="M45">
-        <v>17</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
-      <c r="J46" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K46">
-        <v>0.2622950819672131</v>
-      </c>
-      <c r="L46">
-        <v>16</v>
-      </c>
-      <c r="M46">
-        <v>16</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17">
-      <c r="J47" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K47">
-        <v>0.2203389830508475</v>
-      </c>
-      <c r="L47">
-        <v>13</v>
-      </c>
-      <c r="M47">
-        <v>13</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
         <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
-      <c r="J48" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K48">
-        <v>0.1944444444444444</v>
-      </c>
-      <c r="L48">
-        <v>14</v>
-      </c>
-      <c r="M48">
-        <v>14</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>58</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K49">
-        <v>0.1473684210526316</v>
+        <v>0.1574803149606299</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2674,47 +2764,47 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>81</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K50">
-        <v>0.1417322834645669</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="L50">
         <v>18</v>
       </c>
       <c r="M50">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K51">
-        <v>0.1220095693779904</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="L51">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2726,30 +2816,30 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>367</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K52">
-        <v>0.1201923076923077</v>
+        <v>0.1223021582733813</v>
       </c>
       <c r="L52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M52">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
         <v>366</v>
@@ -2757,16 +2847,16 @@
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K53">
-        <v>0.09302325581395349</v>
+        <v>0.103030303030303</v>
       </c>
       <c r="L53">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M53">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2778,21 +2868,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>195</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K54">
-        <v>0.06152125279642058</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L54">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M54">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2804,21 +2894,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>839</v>
+        <v>376</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K55">
-        <v>0.05882352941176471</v>
+        <v>0.08837209302325581</v>
       </c>
       <c r="L55">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="M55">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2830,99 +2920,99 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>848</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K56">
-        <v>0.05092592592592592</v>
+        <v>0.07441860465116279</v>
       </c>
       <c r="L56">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="M56">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N56">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>615</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K57">
-        <v>0.03369209171736079</v>
+        <v>0.07158836689038031</v>
       </c>
       <c r="L57">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="M57">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="N57">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>2065</v>
+        <v>830</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K58">
-        <v>0.03233256351039261</v>
+        <v>0.05438401775804662</v>
       </c>
       <c r="L58">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="M58">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N58">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>838</v>
+        <v>852</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K59">
-        <v>0.0308641975308642</v>
+        <v>0.04892966360856269</v>
       </c>
       <c r="L59">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M59">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2934,73 +3024,73 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>471</v>
+        <v>311</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K60">
-        <v>0.01549586776859504</v>
+        <v>0.04160246533127889</v>
       </c>
       <c r="L60">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M60">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>953</v>
+        <v>622</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K61">
-        <v>0.01484349790254921</v>
+        <v>0.03506311360448808</v>
       </c>
       <c r="L61">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="M61">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="N61">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="O61">
-        <v>0.15</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>3053</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K62">
-        <v>0.01119724375538329</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="L62">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M62">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3012,33 +3102,111 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>1148</v>
+        <v>471</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K63">
-        <v>0.007829627309740057</v>
+        <v>0.02886836027713626</v>
       </c>
       <c r="L63">
         <v>25</v>
       </c>
       <c r="M63">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N63">
-        <v>0.76</v>
+        <v>0.96</v>
       </c>
       <c r="O63">
-        <v>0.24</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>3168</v>
+        <v>841</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K64">
+        <v>0.01709677419354839</v>
+      </c>
+      <c r="L64">
+        <v>53</v>
+      </c>
+      <c r="M64">
+        <v>60</v>
+      </c>
+      <c r="N64">
+        <v>0.88</v>
+      </c>
+      <c r="O64">
+        <v>0.12</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K65">
+        <v>0.01344364012409514</v>
+      </c>
+      <c r="L65">
+        <v>13</v>
+      </c>
+      <c r="M65">
+        <v>14</v>
+      </c>
+      <c r="N65">
+        <v>0.93</v>
+      </c>
+      <c r="O65">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K66">
+        <v>0.007196495619524406</v>
+      </c>
+      <c r="L66">
+        <v>23</v>
+      </c>
+      <c r="M66">
+        <v>28</v>
+      </c>
+      <c r="N66">
+        <v>0.82</v>
+      </c>
+      <c r="O66">
+        <v>0.18</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>3173</v>
       </c>
     </row>
   </sheetData>
